--- a/xlsx/马克思主义_intext.xlsx
+++ b/xlsx/马克思主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>共產主義</t>
   </si>
   <si>
-    <t>政策_政策_政治_马克思主义</t>
+    <t>体育运动_体育运动_犹太人大屠杀_马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
